--- a/party_list.xlsx
+++ b/party_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>first_name</t>
   </si>
@@ -40,6 +40,9 @@
     <t>Arabella</t>
   </si>
   <si>
+    <t>Anna</t>
+  </si>
+  <si>
     <t>Black</t>
   </si>
   <si>
@@ -64,16 +67,22 @@
     <t>999551494</t>
   </si>
   <si>
-    <t>black@termpuri.org</t>
-  </si>
-  <si>
-    <t>pink@termpuri.org</t>
-  </si>
-  <si>
-    <t>novak@termpuri.org</t>
-  </si>
-  <si>
-    <t>grey@termpuri.org</t>
+    <t>999451494</t>
+  </si>
+  <si>
+    <t>black@tempuri.org</t>
+  </si>
+  <si>
+    <t>pink@tempuri.org</t>
+  </si>
+  <si>
+    <t>novak@tempuri.org</t>
+  </si>
+  <si>
+    <t>grey@tempuri.org</t>
+  </si>
+  <si>
+    <t>anna.grey@tempuri.org</t>
   </si>
 </sst>
 </file>
@@ -431,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,13 +468,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -476,13 +485,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -493,13 +502,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -510,13 +519,30 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/party_list.xlsx
+++ b/party_list.xlsx
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>email</t>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
   <si>
     <t>John</t>
